--- a/2018.10.1-2018.10.7.xlsx
+++ b/2018.10.1-2018.10.7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>时间段</t>
   </si>
@@ -198,6 +198,9 @@
     <t>09：00-09：30</t>
   </si>
   <si>
+    <t>看Linux第11章</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -222,15 +225,15 @@
     <t>12：00-12：30</t>
   </si>
   <si>
+    <t>午休</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
     <t>13：00-14：00</t>
   </si>
   <si>
-    <t>午休</t>
-  </si>
-  <si>
     <t>14：00-14：30</t>
   </si>
   <si>
@@ -243,6 +246,9 @@
     <t>14：30-15：00</t>
   </si>
   <si>
+    <t>做简历</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
@@ -276,6 +282,9 @@
     <t>18：00-18：30</t>
   </si>
   <si>
+    <t>看电视</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -295,6 +304,9 @@
   </si>
   <si>
     <t>20：30-21：00</t>
+  </si>
+  <si>
+    <t>玩游戏</t>
   </si>
   <si>
     <t>21：00-21：30</t>
@@ -339,9 +351,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -368,6 +380,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -376,8 +448,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,120 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
@@ -572,127 +584,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,54 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,54 +921,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -995,157 +959,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,12 +1191,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,19 +1215,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,7 +1600,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F6" sqref="F6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1598,15 +1637,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1622,7 +1661,7 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1630,13 +1669,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1645,22 +1684,20 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1669,18 +1706,18 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1689,18 +1726,20 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1709,632 +1748,638 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="28"/>
+      <c r="J17" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="29"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="29"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="29"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="E21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="29"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="29"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="29"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="29"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="29"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="29"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="E27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="29"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="29"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="29"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="29"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="E31" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="29"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>57</v>
+      <c r="E32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="29"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>59</v>
+      <c r="E33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="29"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>61</v>
+      <c r="E34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="29"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2344,13 +2389,13 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="29"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
@@ -2362,13 +2407,13 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="29"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
@@ -2380,13 +2425,13 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="29"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
@@ -2398,16 +2443,16 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="30"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2418,6 +2463,12 @@
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F28:F31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.1-2018.10.7.xlsx
+++ b/2018.10.1-2018.10.7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>时间段</t>
   </si>
@@ -183,18 +183,21 @@
     <t>起床洗漱</t>
   </si>
   <si>
+    <t>看电视玩</t>
+  </si>
+  <si>
     <t>07：30-08：00</t>
   </si>
   <si>
+    <t>08：00-08：30</t>
+  </si>
+  <si>
+    <t>08：30-09：00</t>
+  </si>
+  <si>
     <t>骑车去实验室</t>
   </si>
   <si>
-    <t>08：00-08：30</t>
-  </si>
-  <si>
-    <t>08：30-09：00</t>
-  </si>
-  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
@@ -228,6 +231,9 @@
     <t>午休</t>
   </si>
   <si>
+    <t>骑车来学校</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
@@ -240,6 +246,9 @@
     <t>看了第十章的Linux，主要学习了Vim的相关操作</t>
   </si>
   <si>
+    <t>看linux</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -258,6 +267,9 @@
     <t>15：30-16：00</t>
   </si>
   <si>
+    <t>看电视</t>
+  </si>
+  <si>
     <t>16：00-16：30</t>
   </si>
   <si>
@@ -270,39 +282,45 @@
     <t>跑步运动</t>
   </si>
   <si>
+    <t>理发</t>
+  </si>
+  <si>
     <t>17：30-18：00</t>
   </si>
   <si>
+    <t>和周威去跑步</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>18：00-18：30</t>
+  </si>
+  <si>
+    <t>18：30-19：00</t>
+  </si>
+  <si>
+    <t>19：00-19：30</t>
+  </si>
+  <si>
+    <t>休息 吃晚饭</t>
+  </si>
+  <si>
+    <t>19：30-20：00</t>
+  </si>
+  <si>
     <t>晚饭</t>
   </si>
   <si>
-    <t>晚上</t>
-  </si>
-  <si>
-    <t>18：00-18：30</t>
-  </si>
-  <si>
-    <t>看电视</t>
-  </si>
-  <si>
-    <t>18：30-19：00</t>
-  </si>
-  <si>
-    <t>19：00-19：30</t>
-  </si>
-  <si>
-    <t>休息 吃晚饭</t>
-  </si>
-  <si>
-    <t>19：30-20：00</t>
-  </si>
-  <si>
     <t>20：00-20：30</t>
   </si>
   <si>
     <t>写了一些代码 主要是排序算法的一些知识</t>
   </si>
   <si>
+    <t>和王二狗打电话</t>
+  </si>
+  <si>
     <t>20：30-21：00</t>
   </si>
   <si>
@@ -321,10 +339,10 @@
     <t>总结一天所学</t>
   </si>
   <si>
+    <t>骑车回家</t>
+  </si>
+  <si>
     <t>22：30-23：00</t>
-  </si>
-  <si>
-    <t>骑车回家</t>
   </si>
   <si>
     <t>23：00-23：30</t>
@@ -351,9 +369,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -374,12 +392,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -388,7 +461,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,54 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,53 +519,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -557,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,13 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFE93CBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,13 +614,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,163 +680,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,8 +937,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,6 +974,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,21 +1018,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -974,190 +1031,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,21 +1215,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1215,38 +1269,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1331,6 +1364,12 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFFFF"/>
+      <color rgb="00E93CBB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1600,7 +1639,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1637,15 +1676,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1661,43 +1700,41 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1708,16 +1745,16 @@
       <c r="D4" s="6"/>
       <c r="E4" s="12"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1728,658 +1765,672 @@
       <c r="D5" s="6"/>
       <c r="E5" s="12"/>
       <c r="F5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="12"/>
       <c r="F6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="12"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="12"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12"/>
       <c r="F11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="20" t="s">
-        <v>32</v>
+      <c r="E15" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="G16" s="23"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="37"/>
+      <c r="J17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="40"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="38"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="38"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="38"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="41"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="23" t="s">
-        <v>42</v>
+      <c r="E21" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="38"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="41"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="1" t="s">
-        <v>44</v>
+      <c r="G22" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="38"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="38"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="38"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="38"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="38"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="20" t="s">
-        <v>53</v>
+      <c r="E27" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="F27" s="28"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="38"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="1"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="30"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="38"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="38"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="38"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="41"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="29" t="s">
-        <v>59</v>
+      <c r="E31" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="F31" s="28"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="38"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="41"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="41"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="41"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="41"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2389,13 +2440,13 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="41"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
@@ -2407,13 +2458,13 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="41"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
@@ -2425,13 +2476,13 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="38"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="41"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
@@ -2443,16 +2494,16 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="39"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2469,6 +2520,13 @@
     <mergeCell ref="F16:F22"/>
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.1-2018.10.7.xlsx
+++ b/2018.10.1-2018.10.7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>时间段</t>
   </si>
@@ -204,6 +204,9 @@
     <t>看Linux第11章</t>
   </si>
   <si>
+    <t>看组合数学第一章 完成了部分课后作业</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -258,9 +261,15 @@
     <t>做简历</t>
   </si>
   <si>
+    <t>去图书馆借Spark的书籍</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
+    <t>阅读Hadoop中关于HDFS的部分,主要学习了hadoop的几个重要组成部分,以及几个重要的流程,包括读写等</t>
+  </si>
+  <si>
     <t>每周有意义的事总结：</t>
   </si>
   <si>
@@ -291,12 +300,18 @@
     <t>和周威去跑步</t>
   </si>
   <si>
+    <t>吃饭</t>
+  </si>
+  <si>
     <t>晚上</t>
   </si>
   <si>
     <t>18：00-18：30</t>
   </si>
   <si>
+    <t>玩游戏</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -324,10 +339,10 @@
     <t>20：30-21：00</t>
   </si>
   <si>
-    <t>玩游戏</t>
-  </si>
-  <si>
     <t>21：00-21：30</t>
+  </si>
+  <si>
+    <t>写排序算法</t>
   </si>
   <si>
     <t>21：30-22：00</t>
@@ -370,8 +385,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -392,7 +407,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,8 +435,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,16 +482,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,81 +539,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,13 +629,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,163 +725,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,8 +952,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,26 +1008,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,39 +1029,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,152 +1051,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,10 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,25 +1269,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1639,7 +1645,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1676,15 +1682,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1706,15 +1712,17 @@
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1726,15 +1734,15 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1746,15 +1754,15 @@
       <c r="E4" s="12"/>
       <c r="F4" s="14"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1768,15 +1776,15 @@
         <v>18</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1790,647 +1798,669 @@
         <v>20</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
       <c r="F7" s="17"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="12"/>
       <c r="F8" s="17"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="12"/>
       <c r="F9" s="17"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="12"/>
       <c r="F10" s="18"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12"/>
       <c r="F11" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="G12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="G15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="14"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="17"/>
       <c r="F16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="40"/>
+      <c r="J17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="G18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="22"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="41"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="41"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="18"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="41"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="26" t="s">
-        <v>46</v>
+      <c r="E21" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="23"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="41"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="1"/>
+      <c r="G22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="41"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="41"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="1"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="41"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="41"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H26" s="25"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="41"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="25"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="41"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="41"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="41"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="41"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="28"/>
+      <c r="E31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="19"/>
       <c r="G31" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H31" s="23"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="41"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="41"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="41"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="41"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2440,13 +2470,13 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="41"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9"/>
@@ -2458,13 +2488,13 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="41"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="9"/>
@@ -2476,13 +2506,13 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="41"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>
@@ -2494,16 +2524,16 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="42"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2527,6 +2557,12 @@
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="H29:H31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.1-2018.10.7.xlsx
+++ b/2018.10.1-2018.10.7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>时间段</t>
   </si>
@@ -207,6 +207,9 @@
     <t>看组合数学第一章 完成了部分课后作业</t>
   </si>
   <si>
+    <t>阅读并背诵HDFS的几个重要流程</t>
+  </si>
+  <si>
     <t>09：30-10：00</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
     <t>去图书馆借Spark的书籍</t>
   </si>
   <si>
+    <t>学习Linuxbash，是真的看不懂啊</t>
+  </si>
+  <si>
     <t>15：00-15：30</t>
   </si>
   <si>
@@ -312,6 +318,9 @@
     <t>玩游戏</t>
   </si>
   <si>
+    <t>跑步</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -321,12 +330,18 @@
     <t>休息 吃晚饭</t>
   </si>
   <si>
+    <t>吃晚饭</t>
+  </si>
+  <si>
     <t>19：30-20：00</t>
   </si>
   <si>
     <t>晚饭</t>
   </si>
   <si>
+    <t>学习Hadoop生态介绍，看慕课视频</t>
+  </si>
+  <si>
     <t>20：00-20：30</t>
   </si>
   <si>
@@ -345,6 +360,9 @@
     <t>写排序算法</t>
   </si>
   <si>
+    <t>查看github找一些自己感兴趣的项目 并添加star</t>
+  </si>
+  <si>
     <t>21：30-22：00</t>
   </si>
   <si>
@@ -358,6 +376,9 @@
   </si>
   <si>
     <t>22：30-23：00</t>
+  </si>
+  <si>
+    <t>回宿舍 今晚查寝</t>
   </si>
   <si>
     <t>23：00-23：30</t>
@@ -384,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -428,7 +449,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -451,6 +487,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -459,24 +511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,13 +543,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -513,40 +550,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,175 +656,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +983,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,7 +1063,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,139 +1072,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,6 +1281,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1268,27 +1310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1645,7 +1666,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I29" sqref="I29:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1682,15 +1703,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1715,14 +1736,16 @@
       <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="I2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1735,14 +1758,14 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1755,14 +1778,14 @@
       <c r="F4" s="14"/>
       <c r="G4" s="13"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1777,14 +1800,14 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1801,19 +1824,21 @@
       <c r="H6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="I6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1821,19 +1846,19 @@
       <c r="F7" s="17"/>
       <c r="G7" s="13"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1841,19 +1866,19 @@
       <c r="F8" s="17"/>
       <c r="G8" s="13"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1861,19 +1886,19 @@
       <c r="F9" s="17"/>
       <c r="G9" s="13"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -1881,177 +1906,183 @@
       <c r="F10" s="18"/>
       <c r="G10" s="13"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="12"/>
       <c r="F11" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="17"/>
       <c r="F16" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="1"/>
+      <c r="H17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="29"/>
       <c r="J17" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
@@ -2063,17 +2094,17 @@
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="33"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -2085,15 +2116,15 @@
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
@@ -2105,15 +2136,15 @@
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="18"/>
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="33"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -2125,19 +2156,19 @@
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="33"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
@@ -2149,19 +2180,19 @@
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="13"/>
       <c r="F22" s="18"/>
       <c r="G22" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="I22" s="30"/>
       <c r="J22" s="33"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
@@ -2172,22 +2203,24 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="13"/>
       <c r="F23" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="1"/>
+      <c r="H23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="J23" s="33"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
@@ -2199,15 +2232,15 @@
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="19"/>
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="33"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
@@ -2219,17 +2252,19 @@
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="J25" s="33"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
@@ -2241,17 +2276,19 @@
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="14"/>
       <c r="F26" s="13"/>
       <c r="G26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
@@ -2263,19 +2300,19 @@
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="33"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
@@ -2287,17 +2324,17 @@
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="17"/>
       <c r="F28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
@@ -2309,19 +2346,21 @@
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="17"/>
       <c r="F29" s="13"/>
       <c r="G29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
@@ -2333,15 +2372,15 @@
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="18"/>
       <c r="F30" s="13"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="33"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
@@ -2353,19 +2392,19 @@
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="33"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
@@ -2377,23 +2416,25 @@
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>45</v>
+        <v>77</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="J32" s="33"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
@@ -2405,23 +2446,25 @@
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="J33" s="33"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
@@ -2433,23 +2476,25 @@
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="J34" s="33"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
@@ -2460,7 +2505,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2533,7 +2578,7 @@
       <c r="P38" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="40">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2563,6 +2608,13 @@
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="H23:H28"/>
     <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>
